--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Sfrp2-Fzd5.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Sfrp2-Fzd5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
   <si>
     <t>Sfrp2</t>
   </si>
   <si>
     <t>Fzd5</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>413.549525076757</v>
+        <v>1.901917666666667</v>
       </c>
       <c r="H2">
-        <v>413.549525076757</v>
+        <v>5.705753</v>
       </c>
       <c r="I2">
-        <v>0.990835610918762</v>
+        <v>0.004503284340245794</v>
       </c>
       <c r="J2">
-        <v>0.990835610918762</v>
+        <v>0.004503284340245794</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.9429037253781</v>
+        <v>2.343367666666667</v>
       </c>
       <c r="N2">
-        <v>1.9429037253781</v>
+        <v>7.030103</v>
       </c>
       <c r="O2">
-        <v>0.06109746437435162</v>
+        <v>0.07041630712807322</v>
       </c>
       <c r="P2">
-        <v>0.06109746437435162</v>
+        <v>0.07041630712807322</v>
       </c>
       <c r="Q2">
-        <v>803.4869128999752</v>
+        <v>4.456892364728778</v>
       </c>
       <c r="R2">
-        <v>803.4869128999752</v>
+        <v>40.11203128255899</v>
       </c>
       <c r="S2">
-        <v>0.06053754343894799</v>
+        <v>0.0003171046531877904</v>
       </c>
       <c r="T2">
-        <v>0.06053754343894799</v>
+        <v>0.0003171046531877904</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>413.549525076757</v>
+        <v>1.901917666666667</v>
       </c>
       <c r="H3">
-        <v>413.549525076757</v>
+        <v>5.705753</v>
       </c>
       <c r="I3">
-        <v>0.990835610918762</v>
+        <v>0.004503284340245794</v>
       </c>
       <c r="J3">
-        <v>0.990835610918762</v>
+        <v>0.004503284340245794</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.83316913008036</v>
+        <v>4.842594333333333</v>
       </c>
       <c r="N3">
-        <v>4.83316913008036</v>
+        <v>14.527783</v>
       </c>
       <c r="O3">
-        <v>0.1519861096992003</v>
+        <v>0.1455160514174545</v>
       </c>
       <c r="P3">
-        <v>0.1519861096992003</v>
+        <v>0.1455160514174545</v>
       </c>
       <c r="Q3">
-        <v>1998.754798360375</v>
+        <v>9.210215715066555</v>
       </c>
       <c r="R3">
-        <v>1998.754798360375</v>
+        <v>82.89194143559899</v>
       </c>
       <c r="S3">
-        <v>0.1505932498549731</v>
+        <v>0.0006553001556026245</v>
       </c>
       <c r="T3">
-        <v>0.1505932498549731</v>
+        <v>0.0006553001556026245</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>413.549525076757</v>
+        <v>1.901917666666667</v>
       </c>
       <c r="H4">
-        <v>413.549525076757</v>
+        <v>5.705753</v>
       </c>
       <c r="I4">
-        <v>0.990835610918762</v>
+        <v>0.004503284340245794</v>
       </c>
       <c r="J4">
-        <v>0.990835610918762</v>
+        <v>0.004503284340245794</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.66430609672149</v>
+        <v>4.196962666666667</v>
       </c>
       <c r="N4">
-        <v>3.66430609672149</v>
+        <v>12.590888</v>
       </c>
       <c r="O4">
-        <v>0.1152294929886927</v>
+        <v>0.1261153409022843</v>
       </c>
       <c r="P4">
-        <v>0.1152294929886927</v>
+        <v>0.1261153409022843</v>
       </c>
       <c r="Q4">
-        <v>1515.372046035038</v>
+        <v>7.982277442073778</v>
       </c>
       <c r="R4">
-        <v>1515.372046035038</v>
+        <v>71.84049697866399</v>
       </c>
       <c r="S4">
-        <v>0.1141734850813105</v>
+        <v>0.0005679332397500168</v>
       </c>
       <c r="T4">
-        <v>0.1141734850813105</v>
+        <v>0.0005679332397500168</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>413.549525076757</v>
+        <v>1.901917666666667</v>
       </c>
       <c r="H5">
-        <v>413.549525076757</v>
+        <v>5.705753</v>
       </c>
       <c r="I5">
-        <v>0.990835610918762</v>
+        <v>0.004503284340245794</v>
       </c>
       <c r="J5">
-        <v>0.990835610918762</v>
+        <v>0.004503284340245794</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.88005197093159</v>
+        <v>5.056184333333333</v>
       </c>
       <c r="N5">
-        <v>4.88005197093159</v>
+        <v>15.168553</v>
       </c>
       <c r="O5">
-        <v>0.1534604095635021</v>
+        <v>0.151934258535964</v>
       </c>
       <c r="P5">
-        <v>0.1534604095635021</v>
+        <v>0.151934258535964</v>
       </c>
       <c r="Q5">
-        <v>2018.143174928651</v>
+        <v>9.61644630948989</v>
       </c>
       <c r="R5">
-        <v>2018.143174928651</v>
+        <v>86.54801678540899</v>
       </c>
       <c r="S5">
-        <v>0.152054038661696</v>
+        <v>0.0006842031672118627</v>
       </c>
       <c r="T5">
-        <v>0.152054038661696</v>
+        <v>0.0006842031672118627</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>413.549525076757</v>
+        <v>1.901917666666667</v>
       </c>
       <c r="H6">
-        <v>413.549525076757</v>
+        <v>5.705753</v>
       </c>
       <c r="I6">
-        <v>0.990835610918762</v>
+        <v>0.004503284340245794</v>
       </c>
       <c r="J6">
-        <v>0.990835610918762</v>
+        <v>0.004503284340245794</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.8072588437978</v>
+        <v>15.01164366666667</v>
       </c>
       <c r="N6">
-        <v>14.8072588437978</v>
+        <v>45.034931</v>
       </c>
       <c r="O6">
-        <v>0.4656360260540867</v>
+        <v>0.451087776777607</v>
       </c>
       <c r="P6">
-        <v>0.4656360260540867</v>
+        <v>0.4510877767776071</v>
       </c>
       <c r="Q6">
-        <v>6123.534862541191</v>
+        <v>28.55091029533811</v>
       </c>
       <c r="R6">
-        <v>6123.534862541191</v>
+        <v>256.958192658043</v>
       </c>
       <c r="S6">
-        <v>0.4613687563410856</v>
+        <v>0.002031376521238888</v>
       </c>
       <c r="T6">
-        <v>0.4613687563410856</v>
+        <v>0.002031376521238889</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>413.549525076757</v>
+        <v>1.901917666666667</v>
       </c>
       <c r="H7">
-        <v>413.549525076757</v>
+        <v>5.705753</v>
       </c>
       <c r="I7">
-        <v>0.990835610918762</v>
+        <v>0.004503284340245794</v>
       </c>
       <c r="J7">
-        <v>0.990835610918762</v>
+        <v>0.004503284340245794</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.67238156622638</v>
+        <v>1.828011333333333</v>
       </c>
       <c r="N7">
-        <v>1.67238156622638</v>
+        <v>5.484034</v>
       </c>
       <c r="O7">
-        <v>0.05259049732016657</v>
+        <v>0.05493026523861683</v>
       </c>
       <c r="P7">
-        <v>0.05259049732016657</v>
+        <v>0.05493026523861684</v>
       </c>
       <c r="Q7">
-        <v>691.6126024600425</v>
+        <v>3.476727049733556</v>
       </c>
       <c r="R7">
-        <v>691.6126024600425</v>
+        <v>31.290543447602</v>
       </c>
       <c r="S7">
-        <v>0.05210853754074876</v>
+        <v>0.0002473666032546111</v>
       </c>
       <c r="T7">
-        <v>0.05210853754074876</v>
+        <v>0.0002473666032546111</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.750502791827563</v>
+        <v>414.2348936666667</v>
       </c>
       <c r="H8">
-        <v>0.750502791827563</v>
+        <v>1242.704681</v>
       </c>
       <c r="I8">
-        <v>0.001798151967648081</v>
+        <v>0.9808087608239342</v>
       </c>
       <c r="J8">
-        <v>0.001798151967648081</v>
+        <v>0.9808087608239342</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.9429037253781</v>
+        <v>2.343367666666667</v>
       </c>
       <c r="N8">
-        <v>1.9429037253781</v>
+        <v>7.030103</v>
       </c>
       <c r="O8">
-        <v>0.06109746437435162</v>
+        <v>0.07041630712807322</v>
       </c>
       <c r="P8">
-        <v>0.06109746437435162</v>
+        <v>0.07041630712807322</v>
       </c>
       <c r="Q8">
-        <v>1.458154670148437</v>
+        <v>970.7046562235714</v>
       </c>
       <c r="R8">
-        <v>1.458154670148437</v>
+        <v>8736.341906012141</v>
       </c>
       <c r="S8">
-        <v>0.0001098625257830489</v>
+        <v>0.06906493093608305</v>
       </c>
       <c r="T8">
-        <v>0.0001098625257830489</v>
+        <v>0.06906493093608305</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.750502791827563</v>
+        <v>414.2348936666667</v>
       </c>
       <c r="H9">
-        <v>0.750502791827563</v>
+        <v>1242.704681</v>
       </c>
       <c r="I9">
-        <v>0.001798151967648081</v>
+        <v>0.9808087608239342</v>
       </c>
       <c r="J9">
-        <v>0.001798151967648081</v>
+        <v>0.9808087608239342</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.83316913008036</v>
+        <v>4.842594333333333</v>
       </c>
       <c r="N9">
-        <v>4.83316913008036</v>
+        <v>14.527783</v>
       </c>
       <c r="O9">
-        <v>0.1519861096992003</v>
+        <v>0.1455160514174545</v>
       </c>
       <c r="P9">
-        <v>0.1519861096992003</v>
+        <v>0.1455160514174545</v>
       </c>
       <c r="Q9">
-        <v>3.627306925500104</v>
+        <v>2005.971548739136</v>
       </c>
       <c r="R9">
-        <v>3.627306925500104</v>
+        <v>18053.74393865222</v>
       </c>
       <c r="S9">
-        <v>0.000273294122210794</v>
+        <v>0.1427234180707454</v>
       </c>
       <c r="T9">
-        <v>0.000273294122210794</v>
+        <v>0.1427234180707454</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.750502791827563</v>
+        <v>414.2348936666667</v>
       </c>
       <c r="H10">
-        <v>0.750502791827563</v>
+        <v>1242.704681</v>
       </c>
       <c r="I10">
-        <v>0.001798151967648081</v>
+        <v>0.9808087608239342</v>
       </c>
       <c r="J10">
-        <v>0.001798151967648081</v>
+        <v>0.9808087608239342</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.66430609672149</v>
+        <v>4.196962666666667</v>
       </c>
       <c r="N10">
-        <v>3.66430609672149</v>
+        <v>12.590888</v>
       </c>
       <c r="O10">
-        <v>0.1152294929886927</v>
+        <v>0.1261153409022843</v>
       </c>
       <c r="P10">
-        <v>0.1152294929886927</v>
+        <v>0.1261153409022843</v>
       </c>
       <c r="Q10">
-        <v>2.750071955700238</v>
+        <v>1738.528383949636</v>
       </c>
       <c r="R10">
-        <v>2.750071955700238</v>
+        <v>15646.75545554673</v>
       </c>
       <c r="S10">
-        <v>0.0002072001395487085</v>
+        <v>0.1236950312312575</v>
       </c>
       <c r="T10">
-        <v>0.0002072001395487085</v>
+        <v>0.1236950312312575</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.750502791827563</v>
+        <v>414.2348936666667</v>
       </c>
       <c r="H11">
-        <v>0.750502791827563</v>
+        <v>1242.704681</v>
       </c>
       <c r="I11">
-        <v>0.001798151967648081</v>
+        <v>0.9808087608239342</v>
       </c>
       <c r="J11">
-        <v>0.001798151967648081</v>
+        <v>0.9808087608239342</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.88005197093159</v>
+        <v>5.056184333333333</v>
       </c>
       <c r="N11">
-        <v>4.88005197093159</v>
+        <v>15.168553</v>
       </c>
       <c r="O11">
-        <v>0.1534604095635021</v>
+        <v>0.151934258535964</v>
       </c>
       <c r="P11">
-        <v>0.1534604095635021</v>
+        <v>0.151934258535964</v>
       </c>
       <c r="Q11">
-        <v>3.662492628447759</v>
+        <v>2094.447979677399</v>
       </c>
       <c r="R11">
-        <v>3.662492628447759</v>
+        <v>18850.03181709659</v>
       </c>
       <c r="S11">
-        <v>0.0002759451374126916</v>
+        <v>0.1490184518413621</v>
       </c>
       <c r="T11">
-        <v>0.0002759451374126916</v>
+        <v>0.1490184518413621</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.750502791827563</v>
+        <v>414.2348936666667</v>
       </c>
       <c r="H12">
-        <v>0.750502791827563</v>
+        <v>1242.704681</v>
       </c>
       <c r="I12">
-        <v>0.001798151967648081</v>
+        <v>0.9808087608239342</v>
       </c>
       <c r="J12">
-        <v>0.001798151967648081</v>
+        <v>0.9808087608239342</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>14.8072588437978</v>
+        <v>15.01164366666667</v>
       </c>
       <c r="N12">
-        <v>14.8072588437978</v>
+        <v>45.034931</v>
       </c>
       <c r="O12">
-        <v>0.4656360260540867</v>
+        <v>0.451087776777607</v>
       </c>
       <c r="P12">
-        <v>0.4656360260540867</v>
+        <v>0.4510877767776071</v>
       </c>
       <c r="Q12">
-        <v>11.11288910158362</v>
+        <v>6218.346618023556</v>
       </c>
       <c r="R12">
-        <v>11.11288910158362</v>
+        <v>55965.11956221201</v>
       </c>
       <c r="S12">
-        <v>0.000837284336456989</v>
+        <v>0.4424308433640682</v>
       </c>
       <c r="T12">
-        <v>0.000837284336456989</v>
+        <v>0.4424308433640682</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.750502791827563</v>
+        <v>414.2348936666667</v>
       </c>
       <c r="H13">
-        <v>0.750502791827563</v>
+        <v>1242.704681</v>
       </c>
       <c r="I13">
-        <v>0.001798151967648081</v>
+        <v>0.9808087608239342</v>
       </c>
       <c r="J13">
-        <v>0.001798151967648081</v>
+        <v>0.9808087608239342</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.67238156622638</v>
+        <v>1.828011333333333</v>
       </c>
       <c r="N13">
-        <v>1.67238156622638</v>
+        <v>5.484034</v>
       </c>
       <c r="O13">
-        <v>0.05259049732016657</v>
+        <v>0.05493026523861683</v>
       </c>
       <c r="P13">
-        <v>0.05259049732016657</v>
+        <v>0.05493026523861684</v>
       </c>
       <c r="Q13">
-        <v>1.255127034453851</v>
+        <v>757.2260802847949</v>
       </c>
       <c r="R13">
-        <v>1.255127034453851</v>
+        <v>6815.034722563154</v>
       </c>
       <c r="S13">
-        <v>9.456570623584862E-05</v>
+        <v>0.05387608538041781</v>
       </c>
       <c r="T13">
-        <v>9.456570623584862E-05</v>
+        <v>0.05387608538041781</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.07447958708625</v>
+        <v>1.098869666666667</v>
       </c>
       <c r="H14">
-        <v>3.07447958708625</v>
+        <v>3.296609</v>
       </c>
       <c r="I14">
-        <v>0.00736623711358986</v>
+        <v>0.002601859506644144</v>
       </c>
       <c r="J14">
-        <v>0.00736623711358986</v>
+        <v>0.002601859506644145</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.9429037253781</v>
+        <v>2.343367666666667</v>
       </c>
       <c r="N14">
-        <v>1.9429037253781</v>
+        <v>7.030103</v>
       </c>
       <c r="O14">
-        <v>0.06109746437435162</v>
+        <v>0.07041630712807322</v>
       </c>
       <c r="P14">
-        <v>0.06109746437435162</v>
+        <v>0.07041630712807322</v>
       </c>
       <c r="Q14">
-        <v>5.973417843348798</v>
+        <v>2.575055646747444</v>
       </c>
       <c r="R14">
-        <v>5.973417843348798</v>
+        <v>23.175500820727</v>
       </c>
       <c r="S14">
-        <v>0.0004500584096205832</v>
+        <v>0.0001832133381239511</v>
       </c>
       <c r="T14">
-        <v>0.0004500584096205832</v>
+        <v>0.0001832133381239511</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.07447958708625</v>
+        <v>1.098869666666667</v>
       </c>
       <c r="H15">
-        <v>3.07447958708625</v>
+        <v>3.296609</v>
       </c>
       <c r="I15">
-        <v>0.00736623711358986</v>
+        <v>0.002601859506644144</v>
       </c>
       <c r="J15">
-        <v>0.00736623711358986</v>
+        <v>0.002601859506644145</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.83316913008036</v>
+        <v>4.842594333333333</v>
       </c>
       <c r="N15">
-        <v>4.83316913008036</v>
+        <v>14.527783</v>
       </c>
       <c r="O15">
-        <v>0.1519861096992003</v>
+        <v>0.1455160514174545</v>
       </c>
       <c r="P15">
-        <v>0.1519861096992003</v>
+        <v>0.1455160514174545</v>
       </c>
       <c r="Q15">
-        <v>14.85947983136747</v>
+        <v>5.321380020871889</v>
       </c>
       <c r="R15">
-        <v>14.85947983136747</v>
+        <v>47.892420187847</v>
       </c>
       <c r="S15">
-        <v>0.001119565722016389</v>
+        <v>0.000378612321749822</v>
       </c>
       <c r="T15">
-        <v>0.001119565722016389</v>
+        <v>0.0003786123217498221</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.07447958708625</v>
+        <v>1.098869666666667</v>
       </c>
       <c r="H16">
-        <v>3.07447958708625</v>
+        <v>3.296609</v>
       </c>
       <c r="I16">
-        <v>0.00736623711358986</v>
+        <v>0.002601859506644144</v>
       </c>
       <c r="J16">
-        <v>0.00736623711358986</v>
+        <v>0.002601859506644145</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.66430609672149</v>
+        <v>4.196962666666667</v>
       </c>
       <c r="N16">
-        <v>3.66430609672149</v>
+        <v>12.590888</v>
       </c>
       <c r="O16">
-        <v>0.1152294929886927</v>
+        <v>0.1261153409022843</v>
       </c>
       <c r="P16">
-        <v>0.1152294929886927</v>
+        <v>0.1261153409022843</v>
       </c>
       <c r="Q16">
-        <v>11.26583429520592</v>
+        <v>4.611914966532445</v>
       </c>
       <c r="R16">
-        <v>11.26583429520592</v>
+        <v>41.507234698792</v>
       </c>
       <c r="S16">
-        <v>0.0008488077678334506</v>
+        <v>0.0003281343986602755</v>
       </c>
       <c r="T16">
-        <v>0.0008488077678334506</v>
+        <v>0.0003281343986602755</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.07447958708625</v>
+        <v>1.098869666666667</v>
       </c>
       <c r="H17">
-        <v>3.07447958708625</v>
+        <v>3.296609</v>
       </c>
       <c r="I17">
-        <v>0.00736623711358986</v>
+        <v>0.002601859506644144</v>
       </c>
       <c r="J17">
-        <v>0.00736623711358986</v>
+        <v>0.002601859506644145</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.88005197093159</v>
+        <v>5.056184333333333</v>
       </c>
       <c r="N17">
-        <v>4.88005197093159</v>
+        <v>15.168553</v>
       </c>
       <c r="O17">
-        <v>0.1534604095635021</v>
+        <v>0.151934258535964</v>
       </c>
       <c r="P17">
-        <v>0.1534604095635021</v>
+        <v>0.151934258535964</v>
       </c>
       <c r="Q17">
-        <v>15.0036201685492</v>
+        <v>5.556087592975222</v>
       </c>
       <c r="R17">
-        <v>15.0036201685492</v>
+        <v>50.004788336777</v>
       </c>
       <c r="S17">
-        <v>0.001130425764393369</v>
+        <v>0.0003953115949567273</v>
       </c>
       <c r="T17">
-        <v>0.001130425764393369</v>
+        <v>0.0003953115949567274</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.07447958708625</v>
+        <v>1.098869666666667</v>
       </c>
       <c r="H18">
-        <v>3.07447958708625</v>
+        <v>3.296609</v>
       </c>
       <c r="I18">
-        <v>0.00736623711358986</v>
+        <v>0.002601859506644144</v>
       </c>
       <c r="J18">
-        <v>0.00736623711358986</v>
+        <v>0.002601859506644145</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>14.8072588437978</v>
+        <v>15.01164366666667</v>
       </c>
       <c r="N18">
-        <v>14.8072588437978</v>
+        <v>45.034931</v>
       </c>
       <c r="O18">
-        <v>0.4656360260540867</v>
+        <v>0.451087776777607</v>
       </c>
       <c r="P18">
-        <v>0.4656360260540867</v>
+        <v>0.4510877767776071</v>
       </c>
       <c r="Q18">
-        <v>45.52461505595868</v>
+        <v>16.49583987210878</v>
       </c>
       <c r="R18">
-        <v>45.52461505595868</v>
+        <v>148.462558848979</v>
       </c>
       <c r="S18">
-        <v>0.003429985376544109</v>
+        <v>0.001173667020339789</v>
       </c>
       <c r="T18">
-        <v>0.003429985376544109</v>
+        <v>0.001173667020339789</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,1177 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.098869666666667</v>
+      </c>
+      <c r="H19">
+        <v>3.296609</v>
+      </c>
+      <c r="I19">
+        <v>0.002601859506644144</v>
+      </c>
+      <c r="J19">
+        <v>0.002601859506644145</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.828011333333333</v>
+      </c>
+      <c r="N19">
+        <v>5.484034</v>
+      </c>
+      <c r="O19">
+        <v>0.05493026523861683</v>
+      </c>
+      <c r="P19">
+        <v>0.05493026523861684</v>
+      </c>
+      <c r="Q19">
+        <v>2.008746204522889</v>
+      </c>
+      <c r="R19">
+        <v>18.078715840706</v>
+      </c>
+      <c r="S19">
+        <v>0.0001429208328135796</v>
+      </c>
+      <c r="T19">
+        <v>0.0001429208328135796</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>1.141463</v>
+      </c>
+      <c r="H20">
+        <v>3.424389</v>
+      </c>
+      <c r="I20">
+        <v>0.002702710292333011</v>
+      </c>
+      <c r="J20">
+        <v>0.002702710292333012</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>2.343367666666667</v>
+      </c>
+      <c r="N20">
+        <v>7.030103</v>
+      </c>
+      <c r="O20">
+        <v>0.07041630712807322</v>
+      </c>
+      <c r="P20">
+        <v>0.07041630712807322</v>
+      </c>
+      <c r="Q20">
+        <v>2.674867486896333</v>
+      </c>
+      <c r="R20">
+        <v>24.073807382067</v>
+      </c>
+      <c r="S20">
+        <v>0.0001903148780231259</v>
+      </c>
+      <c r="T20">
+        <v>0.0001903148780231259</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>1.141463</v>
+      </c>
+      <c r="H21">
+        <v>3.424389</v>
+      </c>
+      <c r="I21">
+        <v>0.002702710292333011</v>
+      </c>
+      <c r="J21">
+        <v>0.002702710292333012</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4.842594333333333</v>
+      </c>
+      <c r="N21">
+        <v>14.527783</v>
+      </c>
+      <c r="O21">
+        <v>0.1455160514174545</v>
+      </c>
+      <c r="P21">
+        <v>0.1455160514174545</v>
+      </c>
+      <c r="Q21">
+        <v>5.527642255509667</v>
+      </c>
+      <c r="R21">
+        <v>49.748780299587</v>
+      </c>
+      <c r="S21">
+        <v>0.0003932877298656138</v>
+      </c>
+      <c r="T21">
+        <v>0.0003932877298656139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>1.141463</v>
+      </c>
+      <c r="H22">
+        <v>3.424389</v>
+      </c>
+      <c r="I22">
+        <v>0.002702710292333011</v>
+      </c>
+      <c r="J22">
+        <v>0.002702710292333012</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>4.196962666666667</v>
+      </c>
+      <c r="N22">
+        <v>12.590888</v>
+      </c>
+      <c r="O22">
+        <v>0.1261153409022843</v>
+      </c>
+      <c r="P22">
+        <v>0.1261153409022843</v>
+      </c>
+      <c r="Q22">
+        <v>4.790677596381334</v>
+      </c>
+      <c r="R22">
+        <v>43.116098367432</v>
+      </c>
+      <c r="S22">
+        <v>0.0003408532298776901</v>
+      </c>
+      <c r="T22">
+        <v>0.0003408532298776902</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>1.141463</v>
+      </c>
+      <c r="H23">
+        <v>3.424389</v>
+      </c>
+      <c r="I23">
+        <v>0.002702710292333011</v>
+      </c>
+      <c r="J23">
+        <v>0.002702710292333012</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>5.056184333333333</v>
+      </c>
+      <c r="N23">
+        <v>15.168553</v>
+      </c>
+      <c r="O23">
+        <v>0.151934258535964</v>
+      </c>
+      <c r="P23">
+        <v>0.151934258535964</v>
+      </c>
+      <c r="Q23">
+        <v>5.771447337679668</v>
+      </c>
+      <c r="R23">
+        <v>51.943026039117</v>
+      </c>
+      <c r="S23">
+        <v>0.0004106342843031347</v>
+      </c>
+      <c r="T23">
+        <v>0.0004106342843031347</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>3.07447958708625</v>
-      </c>
-      <c r="H19">
-        <v>3.07447958708625</v>
-      </c>
-      <c r="I19">
-        <v>0.00736623711358986</v>
-      </c>
-      <c r="J19">
-        <v>0.00736623711358986</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1.67238156622638</v>
-      </c>
-      <c r="N19">
-        <v>1.67238156622638</v>
-      </c>
-      <c r="O19">
-        <v>0.05259049732016657</v>
-      </c>
-      <c r="P19">
-        <v>0.05259049732016657</v>
-      </c>
-      <c r="Q19">
-        <v>5.141702987182336</v>
-      </c>
-      <c r="R19">
-        <v>5.141702987182336</v>
-      </c>
-      <c r="S19">
-        <v>0.000387394073181959</v>
-      </c>
-      <c r="T19">
-        <v>0.000387394073181959</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>1.141463</v>
+      </c>
+      <c r="H24">
+        <v>3.424389</v>
+      </c>
+      <c r="I24">
+        <v>0.002702710292333011</v>
+      </c>
+      <c r="J24">
+        <v>0.002702710292333012</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>15.01164366666667</v>
+      </c>
+      <c r="N24">
+        <v>45.034931</v>
+      </c>
+      <c r="O24">
+        <v>0.451087776777607</v>
+      </c>
+      <c r="P24">
+        <v>0.4510877767776071</v>
+      </c>
+      <c r="Q24">
+        <v>17.13523581468434</v>
+      </c>
+      <c r="R24">
+        <v>154.217122332159</v>
+      </c>
+      <c r="S24">
+        <v>0.001219159577042454</v>
+      </c>
+      <c r="T24">
+        <v>0.001219159577042455</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>1.141463</v>
+      </c>
+      <c r="H25">
+        <v>3.424389</v>
+      </c>
+      <c r="I25">
+        <v>0.002702710292333011</v>
+      </c>
+      <c r="J25">
+        <v>0.002702710292333012</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.828011333333333</v>
+      </c>
+      <c r="N25">
+        <v>5.484034</v>
+      </c>
+      <c r="O25">
+        <v>0.05493026523861683</v>
+      </c>
+      <c r="P25">
+        <v>0.05493026523861684</v>
+      </c>
+      <c r="Q25">
+        <v>2.086607300580667</v>
+      </c>
+      <c r="R25">
+        <v>18.779465705226</v>
+      </c>
+      <c r="S25">
+        <v>0.0001484605932209919</v>
+      </c>
+      <c r="T25">
+        <v>0.000148460593220992</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.553026666666666</v>
+      </c>
+      <c r="H26">
+        <v>10.65908</v>
+      </c>
+      <c r="I26">
+        <v>0.008412713982786695</v>
+      </c>
+      <c r="J26">
+        <v>0.008412713982786696</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.343367666666667</v>
+      </c>
+      <c r="N26">
+        <v>7.030103</v>
+      </c>
+      <c r="O26">
+        <v>0.07041630712807322</v>
+      </c>
+      <c r="P26">
+        <v>0.07041630712807322</v>
+      </c>
+      <c r="Q26">
+        <v>8.32604780947111</v>
+      </c>
+      <c r="R26">
+        <v>74.93443028524</v>
+      </c>
+      <c r="S26">
+        <v>0.000592392251592544</v>
+      </c>
+      <c r="T26">
+        <v>0.0005923922515925441</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>3.553026666666666</v>
+      </c>
+      <c r="H27">
+        <v>10.65908</v>
+      </c>
+      <c r="I27">
+        <v>0.008412713982786695</v>
+      </c>
+      <c r="J27">
+        <v>0.008412713982786696</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>4.842594333333333</v>
+      </c>
+      <c r="N27">
+        <v>14.527783</v>
+      </c>
+      <c r="O27">
+        <v>0.1455160514174545</v>
+      </c>
+      <c r="P27">
+        <v>0.1455160514174545</v>
+      </c>
+      <c r="Q27">
+        <v>17.20586680218222</v>
+      </c>
+      <c r="R27">
+        <v>154.85280121964</v>
+      </c>
+      <c r="S27">
+        <v>0.001224184920479527</v>
+      </c>
+      <c r="T27">
+        <v>0.001224184920479527</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>3.553026666666666</v>
+      </c>
+      <c r="H28">
+        <v>10.65908</v>
+      </c>
+      <c r="I28">
+        <v>0.008412713982786695</v>
+      </c>
+      <c r="J28">
+        <v>0.008412713982786696</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>4.196962666666667</v>
+      </c>
+      <c r="N28">
+        <v>12.590888</v>
+      </c>
+      <c r="O28">
+        <v>0.1261153409022843</v>
+      </c>
+      <c r="P28">
+        <v>0.1261153409022843</v>
+      </c>
+      <c r="Q28">
+        <v>14.91192027367111</v>
+      </c>
+      <c r="R28">
+        <v>134.20728246304</v>
+      </c>
+      <c r="S28">
+        <v>0.001060972291852558</v>
+      </c>
+      <c r="T28">
+        <v>0.001060972291852558</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>3.553026666666666</v>
+      </c>
+      <c r="H29">
+        <v>10.65908</v>
+      </c>
+      <c r="I29">
+        <v>0.008412713982786695</v>
+      </c>
+      <c r="J29">
+        <v>0.008412713982786696</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>5.056184333333333</v>
+      </c>
+      <c r="N29">
+        <v>15.168553</v>
+      </c>
+      <c r="O29">
+        <v>0.151934258535964</v>
+      </c>
+      <c r="P29">
+        <v>0.151934258535964</v>
+      </c>
+      <c r="Q29">
+        <v>17.96475776791555</v>
+      </c>
+      <c r="R29">
+        <v>161.68281991124</v>
+      </c>
+      <c r="S29">
+        <v>0.001278179461249833</v>
+      </c>
+      <c r="T29">
+        <v>0.001278179461249834</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>3.553026666666666</v>
+      </c>
+      <c r="H30">
+        <v>10.65908</v>
+      </c>
+      <c r="I30">
+        <v>0.008412713982786695</v>
+      </c>
+      <c r="J30">
+        <v>0.008412713982786696</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>15.01164366666667</v>
+      </c>
+      <c r="N30">
+        <v>45.034931</v>
+      </c>
+      <c r="O30">
+        <v>0.451087776777607</v>
+      </c>
+      <c r="P30">
+        <v>0.4510877767776071</v>
+      </c>
+      <c r="Q30">
+        <v>53.33677025816444</v>
+      </c>
+      <c r="R30">
+        <v>480.03093232348</v>
+      </c>
+      <c r="S30">
+        <v>0.003794872447161138</v>
+      </c>
+      <c r="T30">
+        <v>0.003794872447161139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>3.553026666666666</v>
+      </c>
+      <c r="H31">
+        <v>10.65908</v>
+      </c>
+      <c r="I31">
+        <v>0.008412713982786695</v>
+      </c>
+      <c r="J31">
+        <v>0.008412713982786696</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.828011333333333</v>
+      </c>
+      <c r="N31">
+        <v>5.484034</v>
+      </c>
+      <c r="O31">
+        <v>0.05493026523861683</v>
+      </c>
+      <c r="P31">
+        <v>0.05493026523861684</v>
+      </c>
+      <c r="Q31">
+        <v>6.494973014302222</v>
+      </c>
+      <c r="R31">
+        <v>58.45475712872</v>
+      </c>
+      <c r="S31">
+        <v>0.0004621126104510937</v>
+      </c>
+      <c r="T31">
+        <v>0.0004621126104510939</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G32">
+        <v>0.4099533333333333</v>
+      </c>
+      <c r="H32">
+        <v>1.22986</v>
+      </c>
+      <c r="I32">
+        <v>0.0009706710540562643</v>
+      </c>
+      <c r="J32">
+        <v>0.0009706710540562644</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>2.343367666666667</v>
+      </c>
+      <c r="N32">
+        <v>7.030103</v>
+      </c>
+      <c r="O32">
+        <v>0.07041630712807322</v>
+      </c>
+      <c r="P32">
+        <v>0.07041630712807322</v>
+      </c>
+      <c r="Q32">
+        <v>0.9606713861755555</v>
+      </c>
+      <c r="R32">
+        <v>8.64604247558</v>
+      </c>
+      <c r="S32">
+        <v>6.835107106275647E-05</v>
+      </c>
+      <c r="T32">
+        <v>6.835107106275648E-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G33">
+        <v>0.4099533333333333</v>
+      </c>
+      <c r="H33">
+        <v>1.22986</v>
+      </c>
+      <c r="I33">
+        <v>0.0009706710540562643</v>
+      </c>
+      <c r="J33">
+        <v>0.0009706710540562644</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>4.842594333333333</v>
+      </c>
+      <c r="N33">
+        <v>14.527783</v>
+      </c>
+      <c r="O33">
+        <v>0.1455160514174545</v>
+      </c>
+      <c r="P33">
+        <v>0.1455160514174545</v>
+      </c>
+      <c r="Q33">
+        <v>1.985237688931111</v>
+      </c>
+      <c r="R33">
+        <v>17.86713920038</v>
+      </c>
+      <c r="S33">
+        <v>0.0001412482190114861</v>
+      </c>
+      <c r="T33">
+        <v>0.0001412482190114861</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G34">
+        <v>0.4099533333333333</v>
+      </c>
+      <c r="H34">
+        <v>1.22986</v>
+      </c>
+      <c r="I34">
+        <v>0.0009706710540562643</v>
+      </c>
+      <c r="J34">
+        <v>0.0009706710540562644</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>4.196962666666667</v>
+      </c>
+      <c r="N34">
+        <v>12.590888</v>
+      </c>
+      <c r="O34">
+        <v>0.1261153409022843</v>
+      </c>
+      <c r="P34">
+        <v>0.1261153409022843</v>
+      </c>
+      <c r="Q34">
+        <v>1.720558835075556</v>
+      </c>
+      <c r="R34">
+        <v>15.48502951568</v>
+      </c>
+      <c r="S34">
+        <v>0.0001224165108862854</v>
+      </c>
+      <c r="T34">
+        <v>0.0001224165108862854</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G35">
+        <v>0.4099533333333333</v>
+      </c>
+      <c r="H35">
+        <v>1.22986</v>
+      </c>
+      <c r="I35">
+        <v>0.0009706710540562643</v>
+      </c>
+      <c r="J35">
+        <v>0.0009706710540562644</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>5.056184333333333</v>
+      </c>
+      <c r="N35">
+        <v>15.168553</v>
+      </c>
+      <c r="O35">
+        <v>0.151934258535964</v>
+      </c>
+      <c r="P35">
+        <v>0.151934258535964</v>
+      </c>
+      <c r="Q35">
+        <v>2.072799621397778</v>
+      </c>
+      <c r="R35">
+        <v>18.65519659258</v>
+      </c>
+      <c r="S35">
+        <v>0.0001474781868803612</v>
+      </c>
+      <c r="T35">
+        <v>0.0001474781868803612</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G36">
+        <v>0.4099533333333333</v>
+      </c>
+      <c r="H36">
+        <v>1.22986</v>
+      </c>
+      <c r="I36">
+        <v>0.0009706710540562643</v>
+      </c>
+      <c r="J36">
+        <v>0.0009706710540562644</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>15.01164366666667</v>
+      </c>
+      <c r="N36">
+        <v>45.034931</v>
+      </c>
+      <c r="O36">
+        <v>0.451087776777607</v>
+      </c>
+      <c r="P36">
+        <v>0.4510877767776071</v>
+      </c>
+      <c r="Q36">
+        <v>6.154073359962222</v>
+      </c>
+      <c r="R36">
+        <v>55.38666023966</v>
+      </c>
+      <c r="S36">
+        <v>0.0004378578477566167</v>
+      </c>
+      <c r="T36">
+        <v>0.0004378578477566168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G37">
+        <v>0.4099533333333333</v>
+      </c>
+      <c r="H37">
+        <v>1.22986</v>
+      </c>
+      <c r="I37">
+        <v>0.0009706710540562643</v>
+      </c>
+      <c r="J37">
+        <v>0.0009706710540562644</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.828011333333333</v>
+      </c>
+      <c r="N37">
+        <v>5.484034</v>
+      </c>
+      <c r="O37">
+        <v>0.05493026523861683</v>
+      </c>
+      <c r="P37">
+        <v>0.05493026523861684</v>
+      </c>
+      <c r="Q37">
+        <v>0.7493993394711111</v>
+      </c>
+      <c r="R37">
+        <v>6.74459405524</v>
+      </c>
+      <c r="S37">
+        <v>5.331921845875838E-05</v>
+      </c>
+      <c r="T37">
+        <v>5.331921845875839E-05</v>
       </c>
     </row>
   </sheetData>
